--- a/storage/app/import/users.xlsx
+++ b/storage/app/import/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkukuh/Sites/memfis/storage/app/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6B741-8681-3642-9967-1D8068800134}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B71983-7899-F240-976C-6289B697DA40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1872,6 +1872,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>17043000</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/storage/app/import/users.xlsx
+++ b/storage/app/import/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkukuh/Sites/memfis/storage/app/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B71983-7899-F240-976C-6289B697DA40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A24FF-0F83-5A40-829B-3BD4AC90DFD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="400">
   <si>
     <t>NRP</t>
   </si>
@@ -938,6 +938,288 @@
   </si>
   <si>
     <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PARIMAN/KSO</t>
+  </si>
+  <si>
+    <t>AMROZI HELMI SUTRISNO/KSO</t>
+  </si>
+  <si>
+    <t>BAMBANG RIYATMONO/KSO</t>
+  </si>
+  <si>
+    <t>BASUKI/KSO</t>
+  </si>
+  <si>
+    <t>DENNIE TJAHJADI WIBOWO HADHI</t>
+  </si>
+  <si>
+    <t>IMAM SANTOSO/KSO</t>
+  </si>
+  <si>
+    <t>IMAM SUBEKTI/KSO</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD ZAINURI/KSO</t>
+  </si>
+  <si>
+    <t>MUH. SALAFI NASUTION</t>
+  </si>
+  <si>
+    <t>SUMARI/KSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUHAILI YAHYA </t>
+  </si>
+  <si>
+    <t>M. ARIF ARIANTO</t>
+  </si>
+  <si>
+    <t>WIDODO RAHARDJO</t>
+  </si>
+  <si>
+    <t>MEKANIKA ANANTA PRADANA</t>
+  </si>
+  <si>
+    <t>M.EFFENDI</t>
+  </si>
+  <si>
+    <t>ADYANTARA/KSO</t>
+  </si>
+  <si>
+    <t>RUDY FIKUS PRIHANTO</t>
+  </si>
+  <si>
+    <t>RIZKY WAHYU DWINANTO</t>
+  </si>
+  <si>
+    <t>VANI TRI AYU NINGSIH</t>
+  </si>
+  <si>
+    <t>ANDRE WIJANARKO</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ALIF TOMODIHARJO</t>
+  </si>
+  <si>
+    <t>M. SJAMHAN  AL FAUZI/KSO BIK</t>
+  </si>
+  <si>
+    <t>NOACH ROBERTH RONSUMBRE</t>
+  </si>
+  <si>
+    <t>IRWAN DUMBI</t>
+  </si>
+  <si>
+    <t>PERIYANTO</t>
+  </si>
+  <si>
+    <t>MULYONO</t>
+  </si>
+  <si>
+    <t>JOHANIS RONSUMBRE</t>
+  </si>
+  <si>
+    <t>THOMAS CORREIA</t>
+  </si>
+  <si>
+    <t>SONNY RULLIN</t>
+  </si>
+  <si>
+    <t>BERMAN DAMANIK</t>
+  </si>
+  <si>
+    <t>MAMBEFOR RONSUMBRE</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YANCE SOMBUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djoko@ptmmf.co.id  </t>
+  </si>
+  <si>
+    <t>pariman@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>amrozi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agung_triwondo@ptmmf.co.id </t>
+  </si>
+  <si>
+    <t>bambang@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>basuki@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>dennie@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>imam_santoso@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>imam_subekti@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>zainuri@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>salafi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sudarsono@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sumari@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>imam@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>saiful@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>windha@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>wahyudi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>suhaili@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>niswan@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>andi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>arif_arianto@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sutaji@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agung_nugroho@ptmmf.co.id </t>
+  </si>
+  <si>
+    <t>gustias@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>asep@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>widodo@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>guntur@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>setyo@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>fredy@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>aldiawan@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>luqmana@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>mekanika@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>dwi_ritno@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>efendi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>adyantara@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>daud@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>engkos@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>ismanto@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>juju@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>rudy_fikus@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sholeh@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>rizky@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>vani@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>mujianto@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sutardjo@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>yusuf@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>rochmad@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>danial@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>andre@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>alif@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sjamhan@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>noach@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irwan_dumbi@ptmmf.co.id </t>
+  </si>
+  <si>
+    <t>periyanto@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>mulyono@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>johanis@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>thomas@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>sonny@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>berman@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>mambefor@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>christian@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>00000000</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1230,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1409,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1435,7 +1723,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1843,16 +2131,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3396,7 +3684,742 @@
         <v>292</v>
       </c>
     </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B122" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B123" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="D124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B125" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B129" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B135" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
+      </c>
+      <c r="D138" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B140" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B141" t="s">
+        <v>317</v>
+      </c>
+      <c r="D141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B142" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" t="s">
+        <v>215</v>
+      </c>
+      <c r="D143" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="D144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B145" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+      <c r="D149" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B150" t="s">
+        <v>245</v>
+      </c>
+      <c r="D150" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B151" t="s">
+        <v>246</v>
+      </c>
+      <c r="D151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="D152" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B153" t="s">
+        <v>262</v>
+      </c>
+      <c r="D153" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B154" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B155" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" t="s">
+        <v>222</v>
+      </c>
+      <c r="D157" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B159" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="D160" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B161" t="s">
+        <v>179</v>
+      </c>
+      <c r="D161" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="D163" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" t="s">
+        <v>217</v>
+      </c>
+      <c r="D164" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B165" t="s">
+        <v>228</v>
+      </c>
+      <c r="D165" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B166" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B167" t="s">
+        <v>230</v>
+      </c>
+      <c r="D167" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B168" t="s">
+        <v>253</v>
+      </c>
+      <c r="D168" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B169" t="s">
+        <v>325</v>
+      </c>
+      <c r="D169" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" t="s">
+        <v>326</v>
+      </c>
+      <c r="D170" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B171" t="s">
+        <v>327</v>
+      </c>
+      <c r="D171" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B172" t="s">
+        <v>328</v>
+      </c>
+      <c r="D172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B173" t="s">
+        <v>329</v>
+      </c>
+      <c r="D173" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B174" t="s">
+        <v>330</v>
+      </c>
+      <c r="D174" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B175" t="s">
+        <v>331</v>
+      </c>
+      <c r="D175" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B176" t="s">
+        <v>332</v>
+      </c>
+      <c r="D176" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177" t="s">
+        <v>333</v>
+      </c>
+      <c r="D177" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" t="s">
+        <v>334</v>
+      </c>
+      <c r="D178" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B179" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B180" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B181" t="s">
+        <v>337</v>
+      </c>
+      <c r="D181" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D121" r:id="rId1" xr:uid="{5F4B10D3-6987-F64E-8197-8B7694AD10CD}"/>
+    <hyperlink ref="D122" r:id="rId2" xr:uid="{2776BD75-5C07-674D-8A6B-C707622121E7}"/>
+    <hyperlink ref="D123" r:id="rId3" xr:uid="{A27727EC-BCD0-FA4F-AA1D-0955D8819252}"/>
+    <hyperlink ref="D124" r:id="rId4" xr:uid="{C64ECD12-15E7-5144-9349-FD00F3220B16}"/>
+    <hyperlink ref="D125" r:id="rId5" xr:uid="{6D111615-ED09-B74E-87A6-D477071E92D4}"/>
+    <hyperlink ref="D126" r:id="rId6" xr:uid="{D3CB3D42-2206-F641-8600-664044B95E6B}"/>
+    <hyperlink ref="D127" r:id="rId7" xr:uid="{E8ECDB43-D315-BC42-AAEF-50BF4E9302AC}"/>
+    <hyperlink ref="D128" r:id="rId8" xr:uid="{31535004-1EBC-4C4D-BB5D-15A1429670CF}"/>
+    <hyperlink ref="D129" r:id="rId9" xr:uid="{FBC49945-C7D4-B242-A205-7D1E3528A445}"/>
+    <hyperlink ref="D130" r:id="rId10" xr:uid="{29295DDB-3E3F-F74E-AF48-4D4091D1B770}"/>
+    <hyperlink ref="D131" r:id="rId11" xr:uid="{A7920110-F2F1-E942-8EE8-C36534BC741E}"/>
+    <hyperlink ref="D132" r:id="rId12" xr:uid="{B8D76B9C-2B8A-794A-AF0F-A492C8A0D9E7}"/>
+    <hyperlink ref="D133" r:id="rId13" xr:uid="{664EDB9E-04C1-4248-BAD2-E2FC412520ED}"/>
+    <hyperlink ref="D134" r:id="rId14" xr:uid="{E10C84C2-3C43-BB4A-BBB2-C039EB8AB080}"/>
+    <hyperlink ref="D135" r:id="rId15" xr:uid="{6D236259-21E3-804C-ACFB-60E59E6D7494}"/>
+    <hyperlink ref="D136" r:id="rId16" xr:uid="{88A65EC5-F0CB-6F4C-851B-E54B7818392B}"/>
+    <hyperlink ref="D137" r:id="rId17" xr:uid="{26290BCF-C2A5-A74D-B012-2903F66274AC}"/>
+    <hyperlink ref="D138" r:id="rId18" xr:uid="{4C1B0788-7D52-EA4B-961A-C2FBC183E460}"/>
+    <hyperlink ref="D139" r:id="rId19" xr:uid="{FD138B8C-09AF-0A4A-8768-0A293AC61B55}"/>
+    <hyperlink ref="D140" r:id="rId20" xr:uid="{DB9FDED3-AF6B-644D-BB30-9EE26D61ED4C}"/>
+    <hyperlink ref="D141" r:id="rId21" xr:uid="{DD9491C8-7371-CA4C-B0C4-6CF3598CB726}"/>
+    <hyperlink ref="D142" r:id="rId22" xr:uid="{7FA3628B-837D-544A-A3CB-49F91E6153A1}"/>
+    <hyperlink ref="D143" r:id="rId23" xr:uid="{BC073160-C50E-7140-B4A4-403D0207E62D}"/>
+    <hyperlink ref="D144" r:id="rId24" xr:uid="{831969FF-C854-D242-A956-F5213478C5F3}"/>
+    <hyperlink ref="D145" r:id="rId25" xr:uid="{C6076E37-E41C-954D-AFA4-28BB895A66BC}"/>
+    <hyperlink ref="D146" r:id="rId26" xr:uid="{2BF474A3-85D1-4748-9A09-E02FEF30115D}"/>
+    <hyperlink ref="D147" r:id="rId27" xr:uid="{51D5B77E-AEA6-F843-8AE8-03B632A71249}"/>
+    <hyperlink ref="D148" r:id="rId28" xr:uid="{798A5874-B779-DF46-95AC-079A9A21DA97}"/>
+    <hyperlink ref="D149" r:id="rId29" xr:uid="{1099689D-F835-AF48-9FFF-2219E8862086}"/>
+    <hyperlink ref="D150" r:id="rId30" xr:uid="{BD3AB299-D284-1D49-91F3-4C79191DCFA0}"/>
+    <hyperlink ref="D151" r:id="rId31" xr:uid="{002B95F7-0787-5845-B18A-0119D8A0023B}"/>
+    <hyperlink ref="D152" r:id="rId32" xr:uid="{2A80701E-8FD7-7846-9C1D-5C03F5F6B939}"/>
+    <hyperlink ref="D153" r:id="rId33" xr:uid="{99ABDADB-065C-E346-BC32-40B83C444A15}"/>
+    <hyperlink ref="D154" r:id="rId34" xr:uid="{49AA6441-672A-2549-8D77-64BC66EDBAD7}"/>
+    <hyperlink ref="D155" r:id="rId35" xr:uid="{F5E6EA30-1C07-6249-8CB0-6DCC642941B3}"/>
+    <hyperlink ref="D156" r:id="rId36" xr:uid="{7DE1D383-BC56-114E-BB3F-386722AD20B3}"/>
+    <hyperlink ref="D157" r:id="rId37" xr:uid="{9A9CFFC8-07EE-4748-92D2-A166A2FFB795}"/>
+    <hyperlink ref="D158" r:id="rId38" xr:uid="{BD444D47-59C6-2142-A141-C1CA3BC3D25D}"/>
+    <hyperlink ref="D159" r:id="rId39" xr:uid="{91888AEB-D68F-DF45-A237-AF0F5AA22E3E}"/>
+    <hyperlink ref="D160" r:id="rId40" xr:uid="{C4CDAE7D-FA68-5744-8E4F-0554E5286434}"/>
+    <hyperlink ref="D161" r:id="rId41" xr:uid="{68C26066-21D8-DB4D-8C5C-C399076715D2}"/>
+    <hyperlink ref="D162" r:id="rId42" xr:uid="{2897EBA5-115D-D34B-991E-E0D5D3B3A65A}"/>
+    <hyperlink ref="D163" r:id="rId43" xr:uid="{58314DEF-F1CD-D34F-9312-48D7ADA143C6}"/>
+    <hyperlink ref="D164" r:id="rId44" xr:uid="{89724632-67E0-454C-93B2-4AD31C4091F6}"/>
+    <hyperlink ref="D165" r:id="rId45" xr:uid="{EB98A4C5-0872-714B-ACCB-B6F1D7F9B044}"/>
+    <hyperlink ref="D166" r:id="rId46" xr:uid="{86D9D6B0-1228-F34F-BB6E-8E0B810226FF}"/>
+    <hyperlink ref="D167" r:id="rId47" xr:uid="{B5FCDF80-5FA2-4B4A-9DF3-2158E9BE87B7}"/>
+    <hyperlink ref="D168" r:id="rId48" xr:uid="{7BCAC499-DB89-104D-B0D5-3BBF5B2953FD}"/>
+    <hyperlink ref="D169" r:id="rId49" xr:uid="{CAF37485-0B24-AE4B-A431-45AF32DA3B4C}"/>
+    <hyperlink ref="D170" r:id="rId50" xr:uid="{CD4DF669-5513-C44D-B94B-D220C4834FB5}"/>
+    <hyperlink ref="D171" r:id="rId51" xr:uid="{49D5BD5E-422A-0D45-98FA-79BAC40C4854}"/>
+    <hyperlink ref="D172" r:id="rId52" xr:uid="{8B981247-6798-5E45-8A60-A152277DF1E4}"/>
+    <hyperlink ref="D173" r:id="rId53" xr:uid="{80D9CA46-27DC-2049-B821-713CC4119C0D}"/>
+    <hyperlink ref="D174" r:id="rId54" xr:uid="{F85F7EE6-287B-FE43-9B06-CE7583D339D2}"/>
+    <hyperlink ref="D175" r:id="rId55" xr:uid="{F9D9B7AA-3630-3C46-AA80-B5212B2C4D65}"/>
+    <hyperlink ref="D176" r:id="rId56" xr:uid="{18A667C5-BADD-694A-9C8C-49F9B9492BDA}"/>
+    <hyperlink ref="D177" r:id="rId57" xr:uid="{94EB535E-9C13-E048-BC4A-A622FF19B6EF}"/>
+    <hyperlink ref="D178" r:id="rId58" xr:uid="{B82BAEB4-EAC8-D64F-ADC3-826C305B68EB}"/>
+    <hyperlink ref="D179" r:id="rId59" xr:uid="{D6A8448C-A71F-2448-886F-E98C32514A9B}"/>
+    <hyperlink ref="D180" r:id="rId60" xr:uid="{EDD6E63A-113E-F349-971D-353DA2DDC263}"/>
+    <hyperlink ref="D181" r:id="rId61" xr:uid="{DFE9D244-86AA-7442-A467-B2F2125F3331}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/app/import/users.xlsx
+++ b/storage/app/import/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkukuh/Sites/memfis/storage/app/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A24FF-0F83-5A40-829B-3BD4AC90DFD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7C0DE-01E0-1C4F-B660-848FD4A986CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="402">
   <si>
     <t>NRP</t>
   </si>
@@ -1220,6 +1220,12 @@
   </si>
   <si>
     <t>00000000</t>
+  </si>
+  <si>
+    <t>muhwahyudi@ptmmf.co.id</t>
+  </si>
+  <si>
+    <t>MUHAMMAD WAHYUDI</t>
   </si>
 </sst>
 </file>
@@ -1721,11 +1727,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2131,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4353,6 +4360,17 @@
       </c>
       <c r="D181" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B182" t="s">
+        <v>401</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
